--- a/data/trans_bre/P19C08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 0,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 0,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 0,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 0,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,19; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 224,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>546,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,5%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,07; 0,93</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 0,9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,33</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 0,06</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-45,72; 336,25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,7; 32,14</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,55%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,4; 1,06</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 0,71</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 1,42</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 1,51</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 425,31</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,31; 1216,04</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,3%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 0,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 0,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 0,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 0,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,19; 304,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,7; 89,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,72; 563,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,8; 100,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,66</t>
+          <t>0,07; 0,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-48,5%</t>
+          <t>-48,95%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,06</t>
+          <t>-0,91; 0,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-83,7; 32,14</t>
+          <t>-84,01; 35,1</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>136,55%</t>
+          <t>159,11%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,51</t>
+          <t>-0,12; 1,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-76,31; 1216,04</t>
+          <t>-71,13; 1391,43</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-16,3%</t>
+          <t>-15,4%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,26</t>
+          <t>-0,44; 0,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,8; 100,79</t>
+          <t>-62,8; 98,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Estudios-trans_bre.xlsx
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 0,85</t>
+          <t>-0,5; 0,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,31</t>
+          <t>-1,55; 0,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,41</t>
+          <t>-1,39; 0,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,62</t>
+          <t>0,07; 0,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-81,19; —</t>
+          <t>-77,51; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 224,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,93</t>
+          <t>0,07; 0,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,9</t>
+          <t>-0,41; 0,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,08</t>
+          <t>-0,91; 0,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,72; 336,25</t>
+          <t>-53,51; 265,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-84,01; 35,1</t>
+          <t>-84,11; 30,5</t>
         </is>
       </c>
     </row>
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,06</t>
+          <t>-1,45; 1,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,71</t>
+          <t>-1,21; 0,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,54</t>
+          <t>-0,15; 1,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 425,31</t>
+          <t>-100,0; 280,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,13; 1391,43</t>
+          <t>-68,9; —</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 0,58</t>
+          <t>-0,15; 0,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,38</t>
+          <t>-0,42; 0,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 0,28</t>
+          <t>-0,18; 0,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,25</t>
+          <t>-0,47; 0,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 304,49</t>
+          <t>-35,53; 294,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 89,52</t>
+          <t>-50,97; 109,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-75,72; 563,26</t>
+          <t>-79,05; 539,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,8; 98,11</t>
+          <t>-64,99; 83,3</t>
         </is>
       </c>
     </row>
